--- a/MainTop/17.04.2024/Таня_печать_p1.xlsx
+++ b/MainTop/17.04.2024/Таня_печать_p1.xlsx
@@ -603,10 +603,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,9 +628,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -639,9 +636,6 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -650,9 +644,6 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -661,9 +652,6 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -672,9 +660,6 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -683,9 +668,6 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -694,9 +676,6 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -705,9 +684,6 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -716,9 +692,6 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -727,9 +700,6 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -738,9 +708,6 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -749,9 +716,6 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -760,9 +724,6 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -771,9 +732,6 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -782,9 +740,6 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -793,9 +748,6 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -804,9 +756,6 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -815,9 +764,6 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -826,9 +772,6 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -837,9 +780,6 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -848,9 +788,6 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -859,9 +796,6 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -870,9 +804,6 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -883,18 +814,12 @@
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -903,9 +828,6 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -914,9 +836,6 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -925,9 +844,6 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -936,9 +852,6 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -947,9 +860,6 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -958,9 +868,6 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -969,9 +876,6 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -980,9 +884,6 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -991,9 +892,6 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1002,9 +900,6 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1013,9 +908,6 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1024,9 +916,6 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1035,9 +924,6 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1046,9 +932,6 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1057,9 +940,6 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1068,9 +948,6 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1079,9 +956,6 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1090,9 +964,6 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1101,9 +972,6 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1112,9 +980,6 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1123,9 +988,6 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1134,9 +996,6 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1145,9 +1004,6 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1156,9 +1012,6 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1167,9 +1020,6 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1178,9 +1028,6 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1189,9 +1036,6 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1200,9 +1044,6 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1211,9 +1052,6 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1222,9 +1060,6 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1233,9 +1068,6 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1244,9 +1076,6 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1257,9 +1086,6 @@
       <c r="B59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
@@ -1268,18 +1094,12 @@
       <c r="B60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1288,9 +1108,6 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1299,9 +1116,6 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1310,9 +1124,6 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1321,9 +1132,6 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1332,9 +1140,6 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1343,9 +1148,6 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1354,9 +1156,6 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1367,18 +1166,12 @@
       <c r="B69" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1387,9 +1180,6 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1398,9 +1188,6 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1409,9 +1196,6 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="0" t="n">
         <v>2</v>
       </c>
     </row>
